--- a/data/trans_bre/P32B-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P32B-Dificultad-trans_bre.xlsx
@@ -660,16 +660,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.6992283556520111</v>
+        <v>-0.8776183893790084</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-5.197478086445038</v>
+        <v>-5.26506331474173</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.806164587742701</v>
+        <v>-3.929504490032629</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-4.986480251053904</v>
+        <v>-4.936288773389107</v>
       </c>
       <c r="G5" s="6" t="inlineStr"/>
       <c r="H5" s="6" t="n">
@@ -679,7 +679,7 @@
         <v>-1</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.8808305827254307</v>
+        <v>-0.8761927952036791</v>
       </c>
     </row>
     <row r="6">
@@ -690,26 +690,26 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.269356464522635</v>
+        <v>3.131125233159721</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-1.72935628404766</v>
+        <v>-1.870186734752612</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-0.1737085537295021</v>
+        <v>-0.3082938304843644</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.211457619012047</v>
+        <v>1.238236647833046</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="n">
-        <v>-0.3561575024009128</v>
+        <v>-0.4756427846583202</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03576367905140399</v>
+        <v>-0.0484396364343126</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.24382331460317</v>
+        <v>0.8847938617177444</v>
       </c>
     </row>
     <row r="7">
@@ -756,26 +756,26 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.8838930696123947</v>
+        <v>-0.9191899675988652</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-2.931657625914199</v>
+        <v>-3.108794282039472</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-2.043604570111449</v>
+        <v>-1.965456277326254</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-3.563100494936844</v>
+        <v>-3.954176726058664</v>
       </c>
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.8258564885793096</v>
+        <v>-0.7909328826096411</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.9432813345586423</v>
+        <v>-0.9338881737018975</v>
       </c>
     </row>
     <row r="9">
@@ -786,26 +786,26 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.054087466418876</v>
+        <v>2.084911649477663</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2771007137131491</v>
+        <v>0.4729726274364154</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.422824053505982</v>
+        <v>1.357989956940951</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3960814732815246</v>
+        <v>0.3795017545672276</v>
       </c>
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="n">
-        <v>0.3764425368897567</v>
+        <v>0.5384231228421675</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.833258229171859</v>
+        <v>1.83890233264176</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.5716681035976678</v>
+        <v>0.6804279052803233</v>
       </c>
     </row>
     <row r="10">
@@ -829,7 +829,7 @@
         <v>-1.466816593716371</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.1621699293837531</v>
+        <v>0.1621699293837528</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.2967641139326085</v>
@@ -841,7 +841,7 @@
         <v>-1</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.08198087223035053</v>
+        <v>0.08198087223035035</v>
       </c>
     </row>
     <row r="11">
@@ -852,24 +852,26 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.398458403732984</v>
+        <v>-1.443801921950785</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.141572083613583</v>
+        <v>-3.274116388655795</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.828777052377358</v>
+        <v>-2.776543516433779</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.795564249537889</v>
-      </c>
-      <c r="G11" s="6" t="inlineStr"/>
+        <v>-1.972000151977102</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="H11" s="6" t="n">
-        <v>-1</v>
+        <v>-0.8973679882755231</v>
       </c>
       <c r="I11" s="6" t="inlineStr"/>
       <c r="J11" s="6" t="n">
-        <v>-0.7246045669174369</v>
+        <v>-0.7822457768139025</v>
       </c>
     </row>
     <row r="12">
@@ -880,24 +882,26 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.031627630273674</v>
+        <v>1.261357450753203</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4721964524827141</v>
+        <v>0.662228294235628</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-0.6906614087221856</v>
+        <v>-0.7157732233946633</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.561417060409976</v>
-      </c>
-      <c r="G12" s="6" t="inlineStr"/>
+        <v>2.931636715714448</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>4.065176632849195</v>
+      </c>
       <c r="H12" s="6" t="n">
-        <v>0.632629137286902</v>
+        <v>0.6678810073806124</v>
       </c>
       <c r="I12" s="6" t="inlineStr"/>
       <c r="J12" s="6" t="n">
-        <v>3.241996708789079</v>
+        <v>2.736543524947801</v>
       </c>
     </row>
     <row r="13">
@@ -933,7 +937,7 @@
         <v>-0.01588048833715768</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.8054969129708879</v>
+        <v>0.8054969129708873</v>
       </c>
     </row>
     <row r="14">
@@ -944,24 +948,24 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.3533035841997796</v>
+        <v>-0.3549428877047309</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-5.986834646830051</v>
+        <v>-5.555033152643462</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-2.640733398149046</v>
+        <v>-2.575445466965719</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-0.9226631369910643</v>
+        <v>-0.7872560635002304</v>
       </c>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="inlineStr"/>
       <c r="I14" s="6" t="n">
-        <v>-0.8555674663078754</v>
+        <v>-0.8558197261538963</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.6561375852095671</v>
+        <v>-0.5533354313716881</v>
       </c>
     </row>
     <row r="15">
@@ -972,24 +976,24 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.558546802377067</v>
+        <v>5.192049697777885</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-1.258788771535235</v>
+        <v>-1.315932030337281</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2.75909305282605</v>
+        <v>2.835381100689744</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4.339227235799203</v>
+        <v>4.431289071189902</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="n">
-        <v>2.82650343776787</v>
+        <v>3.127142170759046</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>5.990567068843193</v>
+        <v>5.968335660751928</v>
       </c>
     </row>
     <row r="16">
@@ -1036,28 +1040,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.4570734801553069</v>
+        <v>-0.4871177461636938</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.056870242370632</v>
+        <v>-3.108925737281213</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.008203282862286</v>
+        <v>-1.864910418614204</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.324567610422337</v>
+        <v>-1.322683902483461</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.5133666024106929</v>
+        <v>-0.5437171468773636</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.9045074690552241</v>
+        <v>-0.9032652702082133</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.7518337229773853</v>
+        <v>-0.746258031989669</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.5323246567867344</v>
+        <v>-0.500743064975847</v>
       </c>
     </row>
     <row r="18">
@@ -1068,28 +1072,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.091354533366638</v>
+        <v>1.180412118510195</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-1.276909193850611</v>
+        <v>-1.322229403447581</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-0.180065833959854</v>
+        <v>-0.1708514005813547</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.128633548876194</v>
+        <v>1.144722492083472</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2.234350221258265</v>
+        <v>2.325599222832814</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>-0.5099981769081229</v>
+        <v>-0.4825898185904977</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>-0.05150069062315363</v>
+        <v>-0.02845521700367308</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.752316293937013</v>
+        <v>0.7422181010002636</v>
       </c>
     </row>
     <row r="19">
